--- a/apifile/TicketController.xlsx
+++ b/apifile/TicketController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6165" yWindow="1650" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -501,7 +501,7 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/ticketSys/relatedEnums</t>
+          <t>http://island.iot-cas.com:8081/island/ticketSys/relatedEnums</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="3" ht="71.25" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/queryTicketsList</t>
+          <t>http://island.iot-cas.com:8081/island/ticketSys/tickets/queryTicketsList</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/780457151296761856</t>
+          <t>http://island.iot-cas.com:8081/island/ticketSys/tickets/788077162108940288</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -586,7 +586,7 @@
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/780457151296761856/files/5fbb66dd1b2d99000878996d</t>
+          <t>http://island.iot-cas.com:8081/island/ticketSys/tickets/788077162108940288/files/5fd71f8d3ca50200091efd63</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -611,7 +611,7 @@
     <row r="6" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/780457151296761856</t>
+          <t>http://island.iot-cas.com:8081/island/ticketSys/tickets/788077162108940288</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,11 +636,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A2" display="http://island.dev.iot-cas.com:8081/island/ticketSys/relatedEnums" r:id="rId1"/>
+    <hyperlink ref="A3" display="http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/queryTicketsList" r:id="rId2"/>
+    <hyperlink ref="A4" display="http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/786914252798054400" r:id="rId3"/>
+    <hyperlink ref="A5" display="http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/786914252798054400/files/5fd2e4824087780008a492c0" r:id="rId4"/>
+    <hyperlink ref="A6" display="http://island.dev.iot-cas.com:8081/island/ticketSys/tickets/786914252798054400" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
